--- a/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-organization-comment.xlsx
+++ b/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-organization-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T15:33:31+00:00</t>
+    <t>2024-06-13T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-organization-comment.xlsx
+++ b/sd-change-def-ror-healthcareservice-sensitive-unit/ig/StructureDefinition-ror-organization-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:04:14+00:00</t>
+    <t>2026-01-20T13:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
